--- a/Documentação/Plano de Homologação(SmartParking).xlsx
+++ b/Documentação/Plano de Homologação(SmartParking).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Malan\Desktop\smart-park\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDED392-BE98-4C0F-94D8-6868DA23606B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9898A-2C37-45EB-BCC8-F8100A26E521}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Responsável</t>
-  </si>
-  <si>
-    <t>Data para Concluir</t>
   </si>
   <si>
     <t>Prioridade</t>
@@ -109,30 +106,6 @@
     <t>Premissas (se necessário)</t>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Data para concluir a atividade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Checklist de Funcionalidades - Critérios de Aceitação</t>
   </si>
   <si>
@@ -241,28 +214,28 @@
     <t>Armazenar todos os dados no Banco de dados</t>
   </si>
   <si>
-    <t>RF002-07</t>
-  </si>
-  <si>
-    <t>Emitir alerta para o usuário.</t>
-  </si>
-  <si>
     <t>Armazenar todos os dados coletados com veracidade e velocidade</t>
   </si>
   <si>
-    <t>Informar o usuário quando as métricas estiver em  "alerta" e "crítico".</t>
-  </si>
-  <si>
     <t>Usuário Autenticado é direcionado para a tela Dashboard</t>
   </si>
   <si>
-    <t>Mostrar na Dashboard alertas com diferentes cores correspondentes ao tipo de situação.</t>
-  </si>
-  <si>
-    <t>Amanda Biagi</t>
-  </si>
-  <si>
     <t>Fernando Brandão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda </t>
+  </si>
+  <si>
+    <t>Priscila e Ricardo</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Testado - OK</t>
+  </si>
+  <si>
+    <t>Essencial</t>
   </si>
 </sst>
 </file>
@@ -395,7 +368,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +441,20 @@
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -703,13 +688,11 @@
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,25 +700,14 @@
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,7 +755,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,71 +857,162 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,141 +1023,55 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1516,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1556,13 +1533,13 @@
     </row>
     <row r="2" spans="1:20" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -1572,11 +1549,11 @@
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -1600,13 +1577,13 @@
     </row>
     <row r="5" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="31"/>
+      <c r="C5" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="73"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="12"/>
@@ -1618,29 +1595,29 @@
     </row>
     <row r="6" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="31"/>
+      <c r="B6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="73"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="90"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="12"/>
@@ -1652,13 +1629,13 @@
     </row>
     <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="83">
+      <c r="B8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="75">
         <v>43795</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="12"/>
@@ -1684,16 +1661,16 @@
     </row>
     <row r="10" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="B10" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="8"/>
@@ -1702,26 +1679,24 @@
     </row>
     <row r="11" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="46" t="s">
+      <c r="F11" s="57"/>
+      <c r="G11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>11</v>
-      </c>
+      <c r="H11" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="80"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="11"/>
@@ -1733,23 +1708,23 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="81"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="11"/>
@@ -1760,20 +1735,24 @@
     </row>
     <row r="13" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
-      <c r="B13" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="B13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="81"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="11"/>
@@ -1785,19 +1764,23 @@
     <row r="14" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="81"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="11"/>
@@ -1808,20 +1791,24 @@
     </row>
     <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
-      <c r="B15" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
+      <c r="B15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="81"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="11"/>
@@ -1830,17 +1817,17 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="23"/>
       <c r="L16" s="11"/>
       <c r="Q16" s="5"/>
@@ -1848,62 +1835,74 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="11"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="55"/>
+      <c r="I18" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
-      <c r="B19" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>11</v>
+      <c r="B19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1912,25 +1911,29 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36" t="s">
+      <c r="C20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="36" t="s">
+      <c r="D20" s="50"/>
+      <c r="E20" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="25"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="R20" s="5"/>
@@ -1938,25 +1941,29 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
-      <c r="B21" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="56" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="58"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="R21" s="5"/>
@@ -1966,23 +1973,27 @@
     </row>
     <row r="22" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="25"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="R22" s="5"/>
@@ -1992,23 +2003,27 @@
     </row>
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
-      <c r="B23" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="56" t="s">
+      <c r="B23" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="66" t="s">
+      <c r="C23" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="58"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="48"/>
+      <c r="I23" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="R23" s="5"/>
@@ -2018,23 +2033,27 @@
     </row>
     <row r="24" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="36" t="s">
+      <c r="B24" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="34" t="s">
+      <c r="C24" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="25"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="R24" s="5"/>
@@ -2042,25 +2061,17 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="58"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="92"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="R25" s="5"/>
@@ -2068,54 +2079,46 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="43">
+        <v>43795</v>
+      </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
@@ -2126,14 +2129,10 @@
       <c r="K28" s="12"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>63</v>
-      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
@@ -2144,41 +2143,37 @@
       <c r="K29" s="12"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="82">
-        <v>43795</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2206,7 +2201,7 @@
     </row>
     <row r="34" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2218,74 +2213,8 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C11:D11"/>
+  <mergeCells count="42">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C5:D5"/>
@@ -2294,17 +2223,50 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B17:J17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I16 H12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J20:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19:J25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I19:I25" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
   </dataValidations>
